--- a/附件1.xlsx
+++ b/附件1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021-9-7\数学建模竞赛组委会、专家组工作\竞赛2023\C题鲜活农产品的自动定价与补货决策\2023-8-26-2 C题(蔡志杰)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\university\code\Python_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D696FBA-E32B-4218-86B7-76D12B915111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$252</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1650,7 +1664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1993,17 +2007,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/附件1.xlsx
+++ b/附件1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\university\code\Python_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38657397-7093-4CE7-B572-A70BB64C187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8180E-72C9-4B90-ABAC-1F2BB420FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/附件1.xlsx
+++ b/附件1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\university\code\Python_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8180E-72C9-4B90-ABAC-1F2BB420FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C0D3BF-7028-4F4F-8905-A91B81AB45A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-204" yWindow="2304" windowWidth="15096" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
